--- a/Parliamentary 2020.xlsx
+++ b/Parliamentary 2020.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3468F8B-2946-4F6D-BF5B-0933A55950E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6AFA86-6719-4357-8E08-02C673722537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,22 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$Q$534</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8080" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8665" uniqueCount="456">
   <si>
     <t>Candidate</t>
   </si>
@@ -1361,13 +1351,52 @@
   </si>
   <si>
     <t>Telephone panel / Allocation</t>
+  </si>
+  <si>
+    <t>W37</t>
+  </si>
+  <si>
+    <t>If parliamentary elections were held tomorrow, for which party would you vote?</t>
+  </si>
+  <si>
+    <t>https://mtavari.tv/news/16445-romel-partias-mistsemdit-khmas-ipsos-kvleva</t>
+  </si>
+  <si>
+    <t>September 2020</t>
+  </si>
+  <si>
+    <t>IPSOS/მთავარი არხი</t>
+  </si>
+  <si>
+    <t>IPSOS/Mtavari Arkhi</t>
+  </si>
+  <si>
+    <t>სექტემბერი-2020</t>
+  </si>
+  <si>
+    <t>W38</t>
+  </si>
+  <si>
+    <t>September-October 2020</t>
+  </si>
+  <si>
+    <t>https://mtavari.tv/news/17909-momdevno-kviras-rom-saparlamento-archevnebi-iqos</t>
+  </si>
+  <si>
+    <t>სექტემბერი-ოქტომბერი 2020</t>
+  </si>
+  <si>
+    <t>W39</t>
+  </si>
+  <si>
+    <t>https://formulanews.ge/News/37950</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1381,11 +1410,6 @@
       <name val="Sylfaen"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1408,7 +1432,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1559,6 +1583,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1617,19 +1647,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1652,8 +1681,8 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1675,11 +1704,27 @@
     <xf numFmtId="15" fontId="0" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Normal_Sheet1_1" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="ბმული" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="ბმული" xfId="1" builtinId="8"/>
     <cellStyle name="ჩვეულებრივი" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2024,11 +2069,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI602"/>
+  <dimension ref="A1:AI647"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D647" sqref="A633:XFD647"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32585,6 +32630,9 @@
       <c r="K546" s="38">
         <v>1615</v>
       </c>
+      <c r="L546" s="38">
+        <v>3.5</v>
+      </c>
       <c r="M546" s="38">
         <v>2.5</v>
       </c>
@@ -32641,6 +32689,9 @@
       <c r="K547" s="38">
         <v>1615</v>
       </c>
+      <c r="L547" s="38">
+        <v>3.5</v>
+      </c>
       <c r="M547" s="38">
         <v>2.5</v>
       </c>
@@ -32697,6 +32748,9 @@
       <c r="K548" s="38">
         <v>1615</v>
       </c>
+      <c r="L548" s="38">
+        <v>3.5</v>
+      </c>
       <c r="M548" s="38">
         <v>2.5</v>
       </c>
@@ -32753,6 +32807,9 @@
       <c r="K549" s="38">
         <v>1615</v>
       </c>
+      <c r="L549" s="38">
+        <v>3.5</v>
+      </c>
       <c r="M549" s="38">
         <v>2.5</v>
       </c>
@@ -32809,6 +32866,9 @@
       <c r="K550" s="38">
         <v>1615</v>
       </c>
+      <c r="L550" s="38">
+        <v>3.5</v>
+      </c>
       <c r="M550" s="38">
         <v>2.5</v>
       </c>
@@ -32865,6 +32925,9 @@
       <c r="K551" s="38">
         <v>1615</v>
       </c>
+      <c r="L551" s="38">
+        <v>3.5</v>
+      </c>
       <c r="M551" s="38">
         <v>2.5</v>
       </c>
@@ -32921,6 +32984,9 @@
       <c r="K552" s="38">
         <v>1615</v>
       </c>
+      <c r="L552" s="38">
+        <v>3.5</v>
+      </c>
       <c r="M552" s="38">
         <v>2.5</v>
       </c>
@@ -32977,6 +33043,9 @@
       <c r="K553" s="38">
         <v>1615</v>
       </c>
+      <c r="L553" s="38">
+        <v>3.5</v>
+      </c>
       <c r="M553" s="38">
         <v>2.5</v>
       </c>
@@ -33033,6 +33102,9 @@
       <c r="K554" s="38">
         <v>1615</v>
       </c>
+      <c r="L554" s="38">
+        <v>3.5</v>
+      </c>
       <c r="M554" s="38">
         <v>2.5</v>
       </c>
@@ -33089,6 +33161,9 @@
       <c r="K555" s="38">
         <v>1615</v>
       </c>
+      <c r="L555" s="38">
+        <v>3.5</v>
+      </c>
       <c r="M555" s="38">
         <v>2.5</v>
       </c>
@@ -33145,6 +33220,9 @@
       <c r="K556" s="38">
         <v>1615</v>
       </c>
+      <c r="L556" s="38">
+        <v>3.5</v>
+      </c>
       <c r="M556" s="38">
         <v>2.5</v>
       </c>
@@ -34887,7 +34965,7 @@
       <c r="M587" s="50">
         <v>2.5</v>
       </c>
-      <c r="N587" s="50" t="s">
+      <c r="N587" s="56" t="s">
         <v>438</v>
       </c>
       <c r="O587" s="50" t="s">
@@ -35741,76 +35819,2597 @@
       </c>
       <c r="R602" s="50" t="s">
         <v>411</v>
+      </c>
+    </row>
+    <row r="603" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A603" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="B603" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="C603" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D603" s="52">
+        <v>25</v>
+      </c>
+      <c r="E603" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F603" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G603" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H603" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I603" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J603" s="54">
+        <v>44092</v>
+      </c>
+      <c r="K603" s="11">
+        <v>1500</v>
+      </c>
+      <c r="L603" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M603" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="N603" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O603" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="P603" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q603" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="R603" s="53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="604" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A604" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="B604" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C604" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="D604" s="52">
+        <v>15.5</v>
+      </c>
+      <c r="E604" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F604" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G604" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H604" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I604" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J604" s="54">
+        <v>44092</v>
+      </c>
+      <c r="K604" s="11">
+        <v>1500</v>
+      </c>
+      <c r="L604" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M604" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="N604" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O604" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="P604" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q604" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="R604" s="53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="605" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A605" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="B605" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="C605" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="D605" s="52">
+        <v>5</v>
+      </c>
+      <c r="E605" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F605" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G605" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H605" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I605" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J605" s="54">
+        <v>44092</v>
+      </c>
+      <c r="K605" s="11">
+        <v>1500</v>
+      </c>
+      <c r="L605" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M605" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="N605" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O605" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="P605" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q605" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="R605" s="53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="606" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A606" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="B606" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="C606" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D606" s="52">
+        <v>3</v>
+      </c>
+      <c r="E606" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F606" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G606" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H606" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I606" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J606" s="54">
+        <v>44092</v>
+      </c>
+      <c r="K606" s="11">
+        <v>1500</v>
+      </c>
+      <c r="L606" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M606" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="N606" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O606" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="P606" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q606" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="R606" s="53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="607" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A607" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="B607" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="C607" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D607" s="52">
+        <v>3</v>
+      </c>
+      <c r="E607" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F607" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G607" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H607" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I607" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J607" s="54">
+        <v>44092</v>
+      </c>
+      <c r="K607" s="11">
+        <v>1500</v>
+      </c>
+      <c r="L607" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M607" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="N607" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O607" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="P607" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q607" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="R607" s="53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="608" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A608" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="B608" s="51" t="s">
+        <v>243</v>
+      </c>
+      <c r="C608" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D608" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="E608" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F608" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G608" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H608" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I608" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J608" s="54">
+        <v>44092</v>
+      </c>
+      <c r="K608" s="11">
+        <v>1500</v>
+      </c>
+      <c r="L608" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M608" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="N608" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O608" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="P608" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q608" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="R608" s="53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="609" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A609" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="B609" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C609" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="D609" s="52">
+        <v>3</v>
+      </c>
+      <c r="E609" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F609" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G609" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H609" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I609" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J609" s="54">
+        <v>44092</v>
+      </c>
+      <c r="K609" s="11">
+        <v>1500</v>
+      </c>
+      <c r="L609" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M609" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="N609" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O609" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="P609" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q609" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="R609" s="53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="610" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A610" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="B610" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C610" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D610" s="52">
+        <v>2.5</v>
+      </c>
+      <c r="E610" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F610" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G610" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H610" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I610" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J610" s="54">
+        <v>44092</v>
+      </c>
+      <c r="K610" s="11">
+        <v>1500</v>
+      </c>
+      <c r="L610" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M610" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="N610" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O610" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="P610" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q610" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="R610" s="53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="611" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A611" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="B611" s="51" t="s">
+        <v>248</v>
+      </c>
+      <c r="C611" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D611" s="52">
+        <v>0</v>
+      </c>
+      <c r="E611" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F611" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G611" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H611" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I611" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J611" s="54">
+        <v>44092</v>
+      </c>
+      <c r="K611" s="11">
+        <v>1500</v>
+      </c>
+      <c r="L611" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M611" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="N611" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O611" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="P611" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q611" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="R611" s="53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="612" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A612" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="B612" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="C612" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D612" s="52">
+        <v>2</v>
+      </c>
+      <c r="E612" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F612" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G612" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H612" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I612" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J612" s="54">
+        <v>44092</v>
+      </c>
+      <c r="K612" s="11">
+        <v>1500</v>
+      </c>
+      <c r="L612" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M612" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="N612" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O612" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="P612" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q612" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="R612" s="53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="613" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A613" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="B613" s="51" t="s">
+        <v>255</v>
+      </c>
+      <c r="C613" s="51" t="s">
+        <v>202</v>
+      </c>
+      <c r="D613" s="52">
+        <v>1.5</v>
+      </c>
+      <c r="E613" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F613" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G613" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H613" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I613" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J613" s="54">
+        <v>44092</v>
+      </c>
+      <c r="K613" s="11">
+        <v>1500</v>
+      </c>
+      <c r="L613" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M613" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="N613" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O613" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="P613" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q613" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="R613" s="53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="614" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A614" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="B614" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="C614" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="D614" s="52">
+        <v>0</v>
+      </c>
+      <c r="E614" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F614" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G614" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H614" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I614" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J614" s="54">
+        <v>44092</v>
+      </c>
+      <c r="K614" s="11">
+        <v>1500</v>
+      </c>
+      <c r="L614" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M614" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="N614" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O614" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="P614" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q614" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="R614" s="53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="615" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A615" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="B615" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C615" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D615" s="52">
+        <v>3</v>
+      </c>
+      <c r="E615" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F615" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G615" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H615" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I615" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J615" s="54">
+        <v>44092</v>
+      </c>
+      <c r="K615" s="11">
+        <v>1500</v>
+      </c>
+      <c r="L615" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M615" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="N615" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O615" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="P615" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q615" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="R615" s="53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="616" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="B616" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C616" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D616" s="52">
+        <v>19</v>
+      </c>
+      <c r="E616" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F616" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G616" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H616" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I616" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J616" s="54">
+        <v>44092</v>
+      </c>
+      <c r="K616" s="11">
+        <v>1500</v>
+      </c>
+      <c r="L616" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M616" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="N616" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O616" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="P616" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q616" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="R616" s="53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="617" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A617" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="B617" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C617" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D617" s="52">
+        <v>14</v>
+      </c>
+      <c r="E617" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="F617" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="G617" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H617" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="I617" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="J617" s="54">
+        <v>44092</v>
+      </c>
+      <c r="K617" s="11">
+        <v>1500</v>
+      </c>
+      <c r="L617" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="M617" s="11">
+        <v>2.5</v>
+      </c>
+      <c r="N617" s="55" t="s">
+        <v>445</v>
+      </c>
+      <c r="O617" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="P617" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q617" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="R617" s="53" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="618" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A618" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="B618" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="C618" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D618" s="58">
+        <v>24.5</v>
+      </c>
+      <c r="E618" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F618" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G618" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H618" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="I618" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J618" s="61">
+        <v>44105</v>
+      </c>
+      <c r="K618" s="59">
+        <v>1500</v>
+      </c>
+      <c r="L618" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="M618" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="N618" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O618" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="P618" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q618" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="R618" s="60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="619" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A619" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="B619" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="C619" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="D619" s="58">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E619" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F619" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G619" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H619" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="I619" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J619" s="61">
+        <v>44105</v>
+      </c>
+      <c r="K619" s="59">
+        <v>1500</v>
+      </c>
+      <c r="L619" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="M619" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="N619" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O619" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="P619" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q619" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="R619" s="60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="620" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A620" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="B620" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="C620" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="D620" s="58">
+        <v>6.9</v>
+      </c>
+      <c r="E620" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F620" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G620" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H620" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="I620" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J620" s="61">
+        <v>44105</v>
+      </c>
+      <c r="K620" s="59">
+        <v>1500</v>
+      </c>
+      <c r="L620" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="M620" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="N620" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O620" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="P620" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q620" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="R620" s="60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="621" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A621" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="B621" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="C621" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D621" s="58">
+        <v>1.7</v>
+      </c>
+      <c r="E621" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F621" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G621" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H621" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="I621" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J621" s="61">
+        <v>44105</v>
+      </c>
+      <c r="K621" s="59">
+        <v>1500</v>
+      </c>
+      <c r="L621" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="M621" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="N621" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O621" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="P621" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q621" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="R621" s="60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="622" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A622" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="B622" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="C622" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="D622" s="58">
+        <v>1.9</v>
+      </c>
+      <c r="E622" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F622" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G622" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H622" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="I622" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J622" s="61">
+        <v>44105</v>
+      </c>
+      <c r="K622" s="59">
+        <v>1500</v>
+      </c>
+      <c r="L622" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="M622" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="N622" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O622" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="P622" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q622" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="R622" s="60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="623" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A623" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="B623" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="C623" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D623" s="58">
+        <v>1</v>
+      </c>
+      <c r="E623" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F623" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G623" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H623" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="I623" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J623" s="61">
+        <v>44105</v>
+      </c>
+      <c r="K623" s="59">
+        <v>1500</v>
+      </c>
+      <c r="L623" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="M623" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="N623" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O623" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="P623" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q623" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="R623" s="60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="624" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A624" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="B624" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="C624" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="D624" s="58">
+        <v>3.4</v>
+      </c>
+      <c r="E624" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F624" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G624" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H624" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="I624" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J624" s="61">
+        <v>44105</v>
+      </c>
+      <c r="K624" s="59">
+        <v>1500</v>
+      </c>
+      <c r="L624" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="M624" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="N624" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O624" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="P624" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q624" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="R624" s="60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="625" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A625" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="B625" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="C625" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D625" s="58">
+        <v>1.8</v>
+      </c>
+      <c r="E625" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F625" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G625" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H625" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="I625" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J625" s="61">
+        <v>44105</v>
+      </c>
+      <c r="K625" s="59">
+        <v>1500</v>
+      </c>
+      <c r="L625" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="M625" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="N625" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O625" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="P625" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q625" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="R625" s="60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="626" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A626" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="B626" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="C626" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="D626" s="58">
+        <v>0</v>
+      </c>
+      <c r="E626" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F626" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G626" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H626" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="I626" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J626" s="61">
+        <v>44105</v>
+      </c>
+      <c r="K626" s="59">
+        <v>1500</v>
+      </c>
+      <c r="L626" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="M626" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="N626" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O626" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="P626" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q626" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="R626" s="60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="627" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A627" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="B627" s="57" t="s">
+        <v>260</v>
+      </c>
+      <c r="C627" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="D627" s="58">
+        <v>3.4</v>
+      </c>
+      <c r="E627" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F627" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G627" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H627" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="I627" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J627" s="61">
+        <v>44105</v>
+      </c>
+      <c r="K627" s="59">
+        <v>1500</v>
+      </c>
+      <c r="L627" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="M627" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="N627" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O627" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="P627" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q627" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="R627" s="60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="628" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A628" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="B628" s="57" t="s">
+        <v>255</v>
+      </c>
+      <c r="C628" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="D628" s="58">
+        <v>1</v>
+      </c>
+      <c r="E628" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F628" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G628" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H628" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="I628" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J628" s="61">
+        <v>44105</v>
+      </c>
+      <c r="K628" s="59">
+        <v>1500</v>
+      </c>
+      <c r="L628" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="M628" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="N628" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O628" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="P628" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q628" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="R628" s="60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="629" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A629" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="B629" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C629" s="57" t="s">
+        <v>99</v>
+      </c>
+      <c r="D629" s="58">
+        <v>0</v>
+      </c>
+      <c r="E629" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F629" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G629" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H629" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="I629" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J629" s="61">
+        <v>44105</v>
+      </c>
+      <c r="K629" s="59">
+        <v>1500</v>
+      </c>
+      <c r="L629" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="M629" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="N629" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O629" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="P629" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q629" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="R629" s="60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="630" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A630" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="B630" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="C630" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D630" s="58">
+        <v>3.8</v>
+      </c>
+      <c r="E630" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F630" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G630" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H630" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="I630" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J630" s="61">
+        <v>44105</v>
+      </c>
+      <c r="K630" s="59">
+        <v>1500</v>
+      </c>
+      <c r="L630" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="M630" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="N630" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O630" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="P630" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q630" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="R630" s="60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="631" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A631" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="B631" s="59" t="s">
+        <v>244</v>
+      </c>
+      <c r="C631" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="D631" s="58">
+        <v>19</v>
+      </c>
+      <c r="E631" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F631" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G631" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H631" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="I631" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J631" s="61">
+        <v>44105</v>
+      </c>
+      <c r="K631" s="59">
+        <v>1500</v>
+      </c>
+      <c r="L631" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="M631" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="N631" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O631" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="P631" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q631" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="R631" s="60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="632" spans="1:18" s="59" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A632" s="57" t="s">
+        <v>450</v>
+      </c>
+      <c r="B632" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C632" s="57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D632" s="58">
+        <v>14</v>
+      </c>
+      <c r="E632" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="F632" s="57" t="s">
+        <v>444</v>
+      </c>
+      <c r="G632" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="H632" s="59" t="s">
+        <v>439</v>
+      </c>
+      <c r="I632" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="J632" s="61">
+        <v>44105</v>
+      </c>
+      <c r="K632" s="59">
+        <v>1500</v>
+      </c>
+      <c r="L632" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="M632" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="N632" s="62" t="s">
+        <v>452</v>
+      </c>
+      <c r="O632" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="P632" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q632" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="R632" s="60" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="633" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A633" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="B633" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="C633" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D633" s="64">
+        <v>36</v>
+      </c>
+      <c r="E633" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F633" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G633" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H633" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I633" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="J633" s="66">
+        <v>44111</v>
+      </c>
+      <c r="K633" s="28">
+        <v>4500</v>
+      </c>
+      <c r="L633" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="M633" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="N633" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O633" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="P633" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q633" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="R633" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="634" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A634" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="B634" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="C634" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="D634" s="64">
+        <v>17</v>
+      </c>
+      <c r="E634" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F634" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G634" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H634" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I634" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="J634" s="66">
+        <v>44111</v>
+      </c>
+      <c r="K634" s="28">
+        <v>4500</v>
+      </c>
+      <c r="L634" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="M634" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="N634" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O634" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="P634" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q634" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="R634" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="635" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A635" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="B635" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="C635" s="63" t="s">
+        <v>111</v>
+      </c>
+      <c r="D635" s="64">
+        <v>5</v>
+      </c>
+      <c r="E635" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F635" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G635" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H635" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I635" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="J635" s="66">
+        <v>44111</v>
+      </c>
+      <c r="K635" s="28">
+        <v>4500</v>
+      </c>
+      <c r="L635" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="M635" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="N635" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O635" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="P635" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q635" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="R635" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="636" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A636" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="B636" s="63" t="s">
+        <v>205</v>
+      </c>
+      <c r="C636" s="63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D636" s="64">
+        <v>3</v>
+      </c>
+      <c r="E636" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F636" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G636" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H636" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I636" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="J636" s="66">
+        <v>44111</v>
+      </c>
+      <c r="K636" s="28">
+        <v>4500</v>
+      </c>
+      <c r="L636" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="M636" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="N636" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O636" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="P636" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q636" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="R636" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="637" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A637" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="B637" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="C637" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="D637" s="64">
+        <v>3</v>
+      </c>
+      <c r="E637" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F637" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G637" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H637" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I637" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="J637" s="66">
+        <v>44111</v>
+      </c>
+      <c r="K637" s="28">
+        <v>4500</v>
+      </c>
+      <c r="L637" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="M637" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="N637" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O637" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="P637" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q637" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="R637" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="638" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A638" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="B638" s="63" t="s">
+        <v>243</v>
+      </c>
+      <c r="C638" s="63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D638" s="64">
+        <v>1</v>
+      </c>
+      <c r="E638" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F638" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G638" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H638" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I638" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="J638" s="66">
+        <v>44111</v>
+      </c>
+      <c r="K638" s="28">
+        <v>4500</v>
+      </c>
+      <c r="L638" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="M638" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="N638" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O638" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="P638" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q638" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="R638" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="639" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A639" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="B639" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C639" s="63" t="s">
+        <v>96</v>
+      </c>
+      <c r="D639" s="64">
+        <v>4</v>
+      </c>
+      <c r="E639" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F639" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G639" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H639" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I639" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="J639" s="66">
+        <v>44111</v>
+      </c>
+      <c r="K639" s="28">
+        <v>4500</v>
+      </c>
+      <c r="L639" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="M639" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="N639" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O639" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="P639" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q639" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="R639" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="640" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A640" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="B640" s="63" t="s">
+        <v>210</v>
+      </c>
+      <c r="C640" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D640" s="64">
+        <v>2</v>
+      </c>
+      <c r="E640" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F640" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G640" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H640" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I640" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="J640" s="66">
+        <v>44111</v>
+      </c>
+      <c r="K640" s="28">
+        <v>4500</v>
+      </c>
+      <c r="L640" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="M640" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="N640" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O640" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="P640" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q640" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="R640" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="641" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A641" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="B641" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="C641" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D641" s="64">
+        <v>0</v>
+      </c>
+      <c r="E641" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F641" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G641" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H641" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I641" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="J641" s="66">
+        <v>44111</v>
+      </c>
+      <c r="K641" s="28">
+        <v>4500</v>
+      </c>
+      <c r="L641" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="M641" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="N641" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O641" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="P641" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q641" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="R641" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="642" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A642" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="B642" s="63" t="s">
+        <v>260</v>
+      </c>
+      <c r="C642" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="D642" s="64">
+        <v>2</v>
+      </c>
+      <c r="E642" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F642" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G642" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H642" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I642" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="J642" s="66">
+        <v>44111</v>
+      </c>
+      <c r="K642" s="28">
+        <v>4500</v>
+      </c>
+      <c r="L642" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="M642" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="N642" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O642" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="P642" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q642" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="R642" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="643" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A643" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="B643" s="63" t="s">
+        <v>255</v>
+      </c>
+      <c r="C643" s="63" t="s">
+        <v>202</v>
+      </c>
+      <c r="D643" s="64">
+        <v>1</v>
+      </c>
+      <c r="E643" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F643" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G643" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H643" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I643" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="J643" s="66">
+        <v>44111</v>
+      </c>
+      <c r="K643" s="28">
+        <v>4500</v>
+      </c>
+      <c r="L643" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="M643" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="N643" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O643" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="P643" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q643" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="R643" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="644" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A644" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="B644" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C644" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="D644" s="64">
+        <v>1</v>
+      </c>
+      <c r="E644" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F644" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G644" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H644" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I644" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="J644" s="66">
+        <v>44111</v>
+      </c>
+      <c r="K644" s="28">
+        <v>4500</v>
+      </c>
+      <c r="L644" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="M644" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="N644" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O644" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="P644" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q644" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="R644" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="645" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A645" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="B645" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="C645" s="63" t="s">
+        <v>41</v>
+      </c>
+      <c r="D645" s="64">
+        <v>1</v>
+      </c>
+      <c r="E645" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F645" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G645" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H645" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I645" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="J645" s="66">
+        <v>44111</v>
+      </c>
+      <c r="K645" s="28">
+        <v>4500</v>
+      </c>
+      <c r="L645" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="M645" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="N645" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O645" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="P645" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q645" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="R645" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="646" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A646" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="B646" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="C646" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="D646" s="64">
+        <v>24</v>
+      </c>
+      <c r="E646" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F646" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G646" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H646" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I646" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="J646" s="66">
+        <v>44111</v>
+      </c>
+      <c r="K646" s="28">
+        <v>4500</v>
+      </c>
+      <c r="L646" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="M646" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="N646" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O646" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="P646" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q646" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="R646" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="647" spans="1:18" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A647" s="63" t="s">
+        <v>454</v>
+      </c>
+      <c r="B647" s="63" t="s">
+        <v>216</v>
+      </c>
+      <c r="C647" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="D647" s="64">
+        <v>0</v>
+      </c>
+      <c r="E647" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="F647" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="G647" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H647" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="I647" s="65" t="s">
+        <v>451</v>
+      </c>
+      <c r="J647" s="66">
+        <v>44111</v>
+      </c>
+      <c r="K647" s="28">
+        <v>4500</v>
+      </c>
+      <c r="L647" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="M647" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="N647" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="O647" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="P647" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q647" s="28" t="s">
+        <v>453</v>
+      </c>
+      <c r="R647" s="28" t="s">
+        <v>451</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B535:D544">
     <sortCondition descending="1" ref="D535:D544"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N353" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="N383" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="N384" display="https://imedinews.ge/ge/politika/145081/kitkhvaze--dges-rom-saparlamento-archevnebi-tardebodes-romel-partias-mistsemdit-khmas-gamokitkhulta-55-qartul-otsnebas-asakhelebs-12-ki--natsionalur-modzraobas?fbclid=IwAR3jGDzAuxdn5YBY2NU7FR0_Yv-6LBEqXW1zVoE-H4fF4t" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="N393" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="N407" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="N408" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="N409" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="N429" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="N441" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="N454" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="N468" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="N483" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="N528" display="https://rustavi2.ge/ka/news/172689?fbclid=IwAR3CVe3rY-aWylq47_12Y2OStiS13rGhVcMnvXQ8liqPhjggMLT4THLOgBM_x000a__x000a_https://www.radiotavisupleba.ge/a/%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%A3%E1%83%A0%E1%83%98-%E1%83%A0%E1%83%94%E1%83%" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="N529" display="https://rustavi2.ge/ka/news/172689?fbclid=IwAR3CVe3rY-aWylq47_12Y2OStiS13rGhVcMnvXQ8liqPhjggMLT4THLOgBM_x000a__x000a_https://www.radiotavisupleba.ge/a/%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%A3%E1%83%A0%E1%83%98-%E1%83%A0%E1%83%94%E1%83%" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="N530" display="https://rustavi2.ge/ka/news/172689?fbclid=IwAR3CVe3rY-aWylq47_12Y2OStiS13rGhVcMnvXQ8liqPhjggMLT4THLOgBM_x000a__x000a_https://www.radiotavisupleba.ge/a/%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%A3%E1%83%A0%E1%83%98-%E1%83%A0%E1%83%94%E1%83%" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="N531" display="https://rustavi2.ge/ka/news/172689?fbclid=IwAR3CVe3rY-aWylq47_12Y2OStiS13rGhVcMnvXQ8liqPhjggMLT4THLOgBM_x000a__x000a_https://www.radiotavisupleba.ge/a/%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%A3%E1%83%A0%E1%83%98-%E1%83%A0%E1%83%94%E1%83%" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="N532" display="https://rustavi2.ge/ka/news/172689?fbclid=IwAR3CVe3rY-aWylq47_12Y2OStiS13rGhVcMnvXQ8liqPhjggMLT4THLOgBM_x000a__x000a_https://www.radiotavisupleba.ge/a/%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%A3%E1%83%A0%E1%83%98-%E1%83%A0%E1%83%94%E1%83%" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="N533" display="https://rustavi2.ge/ka/news/172689?fbclid=IwAR3CVe3rY-aWylq47_12Y2OStiS13rGhVcMnvXQ8liqPhjggMLT4THLOgBM_x000a__x000a_https://www.radiotavisupleba.ge/a/%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%A3%E1%83%A0%E1%83%98-%E1%83%A0%E1%83%94%E1%83%" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="N534" display="https://rustavi2.ge/ka/news/172689?fbclid=IwAR3CVe3rY-aWylq47_12Y2OStiS13rGhVcMnvXQ8liqPhjggMLT4THLOgBM_x000a__x000a_https://www.radiotavisupleba.ge/a/%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%A3%E1%83%A0%E1%83%98-%E1%83%A0%E1%83%94%E1%83%" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="N511" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="N512" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="N524" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="N535" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="N536" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="N537" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="N538" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="N539" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="N540" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="N545" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="N541" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="N542" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="N544" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="N543" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="N557" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="N558:N575" r:id="rId27" display="https://caucasusbarometer.org/en/na2020ge/codebook/" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="N568" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="N569" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="N570" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="N571" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="N572" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="N573" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="N574" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="N576" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="N2:N25" r:id="rId36" display="https://caucasusbarometer.org/en/nn2016ge/PARTYSUPP1/" xr:uid="{AE243B72-470B-48CF-B030-2294505D8B10}"/>
-    <hyperlink ref="N26:N48" r:id="rId37" display="https://caucasusbarometer.org/en/na2017ge/PARTYSUPP1/" xr:uid="{0AB65DEC-7A04-40D3-A1A1-E277533D8901}"/>
-    <hyperlink ref="N49:N71" r:id="rId38" display="https://caucasusbarometer.org/ge/nj2017ge/PARTYSUPP1/" xr:uid="{55B46C07-B792-440F-83E8-2BF947B3C45A}"/>
-    <hyperlink ref="N72:N96" r:id="rId39" display="https://caucasusbarometer.org/ge/nd2017ge/VOTPARL1/" xr:uid="{D003438A-245E-45CB-B00A-2C600C0B305D}"/>
-    <hyperlink ref="N97:N122" r:id="rId40" display="https://caucasusbarometer.org/ge/nm2018ge/VOTPARL1/" xr:uid="{764BFA45-FEF9-45FF-901A-F98AB6C94E80}"/>
-    <hyperlink ref="N123:N147" r:id="rId41" display="https://caucasusbarometer.org/ge/nm2018ge/VOTPARL1/" xr:uid="{636779A2-B9FC-4AF5-B425-75370D649257}"/>
-    <hyperlink ref="N148:N172" r:id="rId42" display="https://caucasusbarometer.org/ge/nj2018ge/VOTPARL1/" xr:uid="{94CC19F5-E598-4A9A-AA47-4227D0BF555F}"/>
-    <hyperlink ref="N173:N196" r:id="rId43" display="https://caucasusbarometer.org/ge/nd2018ge/VOTPARL1/" xr:uid="{D2E90687-C250-48EB-BE46-CCE32F7AD5E3}"/>
-    <hyperlink ref="N197:N218" r:id="rId44" display="https://caucasusbarometer.org/en/na2019ge/VOTPARL1/" xr:uid="{CFFFDC7E-5DA0-43D1-8AD5-BD61B72C2ACF}"/>
-    <hyperlink ref="N219:N242" r:id="rId45" display="https://caucasusbarometer.org/en/nj2019ge/VOTPARL1/" xr:uid="{81A2C310-030A-499A-853B-AE7E0861E080}"/>
-    <hyperlink ref="N243:N267" r:id="rId46" display="https://caucasusbarometer.org/en/nn2019ge/VOTPARL1/" xr:uid="{D2A31298-2E75-4E96-95B0-EF26AC931F5F}"/>
-    <hyperlink ref="N268:N304" r:id="rId47" display="https://caucasusbarometer.org/en/cb2019ge/PARTYSUPP/" xr:uid="{DC1F96DD-948D-4638-985D-700A19BAB2CC}"/>
-    <hyperlink ref="N305:N317" r:id="rId48" display="https://www.iri.org/sites/default/files/iri_poll_presentation_georgia_2017.03-general.pdf" xr:uid="{FDEAF1EB-B2CF-4B0A-BEE1-C9088B3C09B6}"/>
-    <hyperlink ref="N318:N328" r:id="rId49" display="https://www.iri.org/sites/default/files/2018-5-29_georgia_poll_presentation.pdf" xr:uid="{61E7C538-E791-4A81-863E-3EB32F99322B}"/>
-    <hyperlink ref="N329:N340" r:id="rId50" display="https://www.iri.org/sites/default/files/georgia_poll_2.pdf" xr:uid="{3B2DF785-4DE5-4308-8DD0-D6694F5EB3EC}"/>
-    <hyperlink ref="N341:N352" r:id="rId51" display="https://formulanews.ge/News/22931" xr:uid="{DBE17F92-1050-4AD1-B611-167D877B407D}"/>
+    <hyperlink ref="N353" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N383" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N384" display="https://imedinews.ge/ge/politika/145081/kitkhvaze--dges-rom-saparlamento-archevnebi-tardebodes-romel-partias-mistsemdit-khmas-gamokitkhulta-55-qartul-otsnebas-asakhelebs-12-ki--natsionalur-modzraobas?fbclid=IwAR3jGDzAuxdn5YBY2NU7FR0_Yv-6LBEqXW1zVoE-H4fF4t" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N393" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N407" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N408" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N409" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="N429" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N441" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N454" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N468" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N483" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N528" display="https://rustavi2.ge/ka/news/172689?fbclid=IwAR3CVe3rY-aWylq47_12Y2OStiS13rGhVcMnvXQ8liqPhjggMLT4THLOgBM_x000a__x000a_https://www.radiotavisupleba.ge/a/%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%A3%E1%83%A0%E1%83%98-%E1%83%A0%E1%83%94%E1%83%" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="N529" display="https://rustavi2.ge/ka/news/172689?fbclid=IwAR3CVe3rY-aWylq47_12Y2OStiS13rGhVcMnvXQ8liqPhjggMLT4THLOgBM_x000a__x000a_https://www.radiotavisupleba.ge/a/%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%A3%E1%83%A0%E1%83%98-%E1%83%A0%E1%83%94%E1%83%" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N530" display="https://rustavi2.ge/ka/news/172689?fbclid=IwAR3CVe3rY-aWylq47_12Y2OStiS13rGhVcMnvXQ8liqPhjggMLT4THLOgBM_x000a__x000a_https://www.radiotavisupleba.ge/a/%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%A3%E1%83%A0%E1%83%98-%E1%83%A0%E1%83%94%E1%83%" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="N531" display="https://rustavi2.ge/ka/news/172689?fbclid=IwAR3CVe3rY-aWylq47_12Y2OStiS13rGhVcMnvXQ8liqPhjggMLT4THLOgBM_x000a__x000a_https://www.radiotavisupleba.ge/a/%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%A3%E1%83%A0%E1%83%98-%E1%83%A0%E1%83%94%E1%83%" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N532" display="https://rustavi2.ge/ka/news/172689?fbclid=IwAR3CVe3rY-aWylq47_12Y2OStiS13rGhVcMnvXQ8liqPhjggMLT4THLOgBM_x000a__x000a_https://www.radiotavisupleba.ge/a/%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%A3%E1%83%A0%E1%83%98-%E1%83%A0%E1%83%94%E1%83%" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="N533" display="https://rustavi2.ge/ka/news/172689?fbclid=IwAR3CVe3rY-aWylq47_12Y2OStiS13rGhVcMnvXQ8liqPhjggMLT4THLOgBM_x000a__x000a_https://www.radiotavisupleba.ge/a/%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%A3%E1%83%A0%E1%83%98-%E1%83%A0%E1%83%94%E1%83%" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="N534" display="https://rustavi2.ge/ka/news/172689?fbclid=IwAR3CVe3rY-aWylq47_12Y2OStiS13rGhVcMnvXQ8liqPhjggMLT4THLOgBM_x000a__x000a_https://www.radiotavisupleba.ge/a/%E1%83%9E%E1%83%9D%E1%83%9A%E1%83%98%E1%83%A2%E1%83%98%E1%83%99%E1%83%A3%E1%83%A0%E1%83%98-%E1%83%A0%E1%83%94%E1%83%" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="N511" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N512" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="N524" r:id="rId14" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="N535" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="N536" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="N537" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="N538" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="N539" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="N540" r:id="rId20" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="N545" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="N541" r:id="rId22" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="N542" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="N544" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="N543" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="N557" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="N558:N575" r:id="rId27" display="https://caucasusbarometer.org/en/na2020ge/codebook/" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="N568" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="N569" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="N570" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N571" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="N572" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="N573" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="N574" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="N576" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="N2:N25" r:id="rId36" display="https://caucasusbarometer.org/en/nn2016ge/PARTYSUPP1/" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="N26:N48" r:id="rId37" display="https://caucasusbarometer.org/en/na2017ge/PARTYSUPP1/" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="N49:N71" r:id="rId38" display="https://caucasusbarometer.org/ge/nj2017ge/PARTYSUPP1/" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="N72:N96" r:id="rId39" display="https://caucasusbarometer.org/ge/nd2017ge/VOTPARL1/" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="N97:N122" r:id="rId40" display="https://caucasusbarometer.org/ge/nm2018ge/VOTPARL1/" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="N123:N147" r:id="rId41" display="https://caucasusbarometer.org/ge/nm2018ge/VOTPARL1/" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="N148:N172" r:id="rId42" display="https://caucasusbarometer.org/ge/nj2018ge/VOTPARL1/" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="N173:N196" r:id="rId43" display="https://caucasusbarometer.org/ge/nd2018ge/VOTPARL1/" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="N197:N218" r:id="rId44" display="https://caucasusbarometer.org/en/na2019ge/VOTPARL1/" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="N219:N242" r:id="rId45" display="https://caucasusbarometer.org/en/nj2019ge/VOTPARL1/" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="N243:N267" r:id="rId46" display="https://caucasusbarometer.org/en/nn2019ge/VOTPARL1/" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="N268:N304" r:id="rId47" display="https://caucasusbarometer.org/en/cb2019ge/PARTYSUPP/" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="N305:N317" r:id="rId48" display="https://www.iri.org/sites/default/files/iri_poll_presentation_georgia_2017.03-general.pdf" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="N318:N328" r:id="rId49" display="https://www.iri.org/sites/default/files/2018-5-29_georgia_poll_presentation.pdf" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="N329:N340" r:id="rId50" display="https://www.iri.org/sites/default/files/georgia_poll_2.pdf" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="N341:N352" r:id="rId51" display="https://formulanews.ge/News/22931" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="N587" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId52"/>
+  <pageSetup orientation="portrait" r:id="rId53"/>
 </worksheet>
 </file>
 

--- a/Parliamentary 2020.xlsx
+++ b/Parliamentary 2020.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6AFA86-6719-4357-8E08-02C673722537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5952E459-CDCD-48C3-92B9-4BA30157A24C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,12 +14,23 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$Q$534</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8665" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9744" uniqueCount="480">
   <si>
     <t>Candidate</t>
   </si>
@@ -1390,6 +1401,78 @@
   </si>
   <si>
     <t>https://formulanews.ge/News/37950</t>
+  </si>
+  <si>
+    <t>https://api.mtavari.tv/files/inline-files/axaliinpormatsia-ipsos_is-kvlevis-shesakheb-18.10.20.pdf?fbclid=IwAR27Mo5qwttx7ZkF7bKbsuXvH7eul-henBvbxwiJfl7SdvpHX8IcVzucjd0</t>
+  </si>
+  <si>
+    <t>October 2020</t>
+  </si>
+  <si>
+    <t>ოქტომბერი 2020</t>
+  </si>
+  <si>
+    <t>W40</t>
+  </si>
+  <si>
+    <t>W41</t>
+  </si>
+  <si>
+    <t>W42</t>
+  </si>
+  <si>
+    <t>CRRC omnibus wave 5 October</t>
+  </si>
+  <si>
+    <t>CRRC ომნიბუსი, მე-5 ტალღა, ოქტომბერი</t>
+  </si>
+  <si>
+    <t>CRRC Omnibus, Wave 5, October 2020</t>
+  </si>
+  <si>
+    <t>Solidarity Alliance</t>
+  </si>
+  <si>
+    <t>W43</t>
+  </si>
+  <si>
+    <t>https://rustavi2.ge/ka/news/179933</t>
+  </si>
+  <si>
+    <t>ოქტომბერი-2020</t>
+  </si>
+  <si>
+    <t>W44</t>
+  </si>
+  <si>
+    <t>ევროპული საქართველო</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/europeangeorgia.ge/posts/1040600476412013</t>
+  </si>
+  <si>
+    <t>Imedi/POS</t>
+  </si>
+  <si>
+    <t>დღეს რომ ტარდებოდეს საპარალემენტო არჩევნები, ვის მისცემდით ხმას</t>
+  </si>
+  <si>
+    <t>Stratified Random Sample</t>
+  </si>
+  <si>
+    <t>https://imedinews.ge/ge/politika/169660/public-opinion-strategiesis-gamokitkhulta-56-archevnebshi-khmas-qartul-otsnebas-adzlevs</t>
+  </si>
+  <si>
+    <t>იმედი/POS</t>
+  </si>
+  <si>
+    <t>W45</t>
+  </si>
+  <si>
+    <t>W46</t>
+  </si>
+  <si>
+    <t>https://mtavari.tv/news/20692-momdevno-kviras-rom-saparlamento-archevnebi-iqos</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1515,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1589,6 +1672,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -1651,7 +1740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1722,6 +1811,22 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="26" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="27" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="15" fontId="0" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ბმული" xfId="1" builtinId="8"/>
@@ -2069,11 +2174,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI647"/>
+  <dimension ref="A1:AI730"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D647" sqref="A633:XFD647"/>
+      <pane ySplit="1" topLeftCell="A713" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A719" sqref="A719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -38339,6 +38444,4654 @@
       </c>
       <c r="R647" s="28" t="s">
         <v>451</v>
+      </c>
+    </row>
+    <row r="648" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A648" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="B648" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="C648" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D648" s="72">
+        <v>26.2</v>
+      </c>
+      <c r="E648" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F648" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G648" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H648" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I648" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J648" s="70">
+        <v>44119</v>
+      </c>
+      <c r="K648" s="12">
+        <v>1507</v>
+      </c>
+      <c r="L648" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="M648" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="N648" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="O648" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P648" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q648" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R648" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="649" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A649" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="B649" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C649" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D649" s="72">
+        <v>17.8</v>
+      </c>
+      <c r="E649" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F649" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G649" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H649" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I649" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J649" s="70">
+        <v>44119</v>
+      </c>
+      <c r="K649" s="12">
+        <v>1507</v>
+      </c>
+      <c r="L649" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="M649" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="N649" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="O649" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P649" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q649" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R649" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="650" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A650" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="B650" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="C650" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="D650" s="72">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E650" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F650" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G650" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H650" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I650" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J650" s="70">
+        <v>44119</v>
+      </c>
+      <c r="K650" s="12">
+        <v>1507</v>
+      </c>
+      <c r="L650" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="M650" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="N650" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="O650" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P650" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q650" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R650" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="651" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A651" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="B651" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="C651" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D651" s="72">
+        <v>1.2</v>
+      </c>
+      <c r="E651" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F651" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G651" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H651" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I651" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J651" s="70">
+        <v>44119</v>
+      </c>
+      <c r="K651" s="12">
+        <v>1507</v>
+      </c>
+      <c r="L651" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="M651" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="N651" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="O651" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P651" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q651" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R651" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="652" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A652" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="B652" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="C652" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D652" s="72">
+        <v>2.1</v>
+      </c>
+      <c r="E652" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F652" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G652" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H652" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I652" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J652" s="70">
+        <v>44119</v>
+      </c>
+      <c r="K652" s="12">
+        <v>1507</v>
+      </c>
+      <c r="L652" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="M652" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="N652" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="O652" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P652" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q652" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R652" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="653" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A653" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="B653" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="C653" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="D653" s="72">
+        <v>0.7</v>
+      </c>
+      <c r="E653" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F653" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G653" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H653" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I653" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J653" s="70">
+        <v>44119</v>
+      </c>
+      <c r="K653" s="12">
+        <v>1507</v>
+      </c>
+      <c r="L653" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="M653" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="N653" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="O653" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P653" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q653" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R653" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="654" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A654" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="B654" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C654" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D654" s="72">
+        <v>5.3</v>
+      </c>
+      <c r="E654" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F654" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G654" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H654" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I654" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J654" s="70">
+        <v>44119</v>
+      </c>
+      <c r="K654" s="12">
+        <v>1507</v>
+      </c>
+      <c r="L654" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="M654" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="N654" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="O654" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P654" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q654" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R654" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="655" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A655" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="B655" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="C655" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="D655" s="72">
+        <v>2.7</v>
+      </c>
+      <c r="E655" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F655" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G655" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H655" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I655" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J655" s="70">
+        <v>44119</v>
+      </c>
+      <c r="K655" s="12">
+        <v>1507</v>
+      </c>
+      <c r="L655" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="M655" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="N655" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="O655" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P655" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q655" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R655" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="656" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A656" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="B656" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="C656" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="D656" s="72">
+        <v>2.7</v>
+      </c>
+      <c r="E656" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F656" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G656" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H656" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I656" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J656" s="70">
+        <v>44119</v>
+      </c>
+      <c r="K656" s="12">
+        <v>1507</v>
+      </c>
+      <c r="L656" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="M656" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="N656" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="O656" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P656" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q656" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R656" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="657" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A657" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="B657" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="C657" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="D657" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="E657" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F657" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G657" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H657" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I657" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J657" s="70">
+        <v>44119</v>
+      </c>
+      <c r="K657" s="12">
+        <v>1507</v>
+      </c>
+      <c r="L657" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="M657" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="N657" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="O657" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P657" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q657" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R657" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="658" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A658" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="B658" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="C658" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D658" s="72">
+        <v>1.7</v>
+      </c>
+      <c r="E658" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F658" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G658" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H658" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I658" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J658" s="70">
+        <v>44119</v>
+      </c>
+      <c r="K658" s="12">
+        <v>1507</v>
+      </c>
+      <c r="L658" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="M658" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="N658" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="O658" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P658" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q658" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R658" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="659" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A659" s="68" t="s">
+        <v>459</v>
+      </c>
+      <c r="B659" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C659" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D659" s="72">
+        <v>34</v>
+      </c>
+      <c r="E659" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F659" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G659" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H659" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I659" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J659" s="70">
+        <v>44119</v>
+      </c>
+      <c r="K659" s="12">
+        <v>1507</v>
+      </c>
+      <c r="L659" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="M659" s="12">
+        <v>2.5</v>
+      </c>
+      <c r="N659" s="71" t="s">
+        <v>456</v>
+      </c>
+      <c r="O659" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P659" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q659" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R659" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="660" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A660" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="B660" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C660" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D660" s="37">
+        <v>55.6</v>
+      </c>
+      <c r="E660" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F660" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G660" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H660" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I660" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="J660" s="54">
+        <v>44103</v>
+      </c>
+      <c r="K660" s="37">
+        <v>9075</v>
+      </c>
+      <c r="L660" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="M660" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="N660" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="O660" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P660" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q660" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="R660" s="73" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="661" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A661" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="B661" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C661" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D661" s="37">
+        <v>19.8</v>
+      </c>
+      <c r="E661" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F661" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G661" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H661" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I661" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="J661" s="54">
+        <v>44103</v>
+      </c>
+      <c r="K661" s="37">
+        <v>9075</v>
+      </c>
+      <c r="L661" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="M661" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="N661" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="O661" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P661" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q661" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="R661" s="73" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="662" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A662" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="B662" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C662" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="D662" s="37">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E662" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F662" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G662" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H662" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I662" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="J662" s="54">
+        <v>44103</v>
+      </c>
+      <c r="K662" s="37">
+        <v>9075</v>
+      </c>
+      <c r="L662" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="M662" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="N662" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="O662" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P662" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q662" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="R662" s="73" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="663" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A663" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="B663" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C663" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D663" s="37">
+        <v>5.2</v>
+      </c>
+      <c r="E663" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F663" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G663" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H663" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I663" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="J663" s="54">
+        <v>44103</v>
+      </c>
+      <c r="K663" s="37">
+        <v>9075</v>
+      </c>
+      <c r="L663" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="M663" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="N663" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="O663" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P663" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q663" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="R663" s="73" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="664" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A664" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="B664" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C664" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D664" s="37">
+        <v>2.7</v>
+      </c>
+      <c r="E664" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F664" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G664" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H664" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I664" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="J664" s="54">
+        <v>44103</v>
+      </c>
+      <c r="K664" s="37">
+        <v>9075</v>
+      </c>
+      <c r="L664" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="M664" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="N664" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="O664" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P664" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q664" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="R664" s="73" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="665" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A665" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="B665" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C665" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D665" s="37">
+        <v>3.8</v>
+      </c>
+      <c r="E665" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F665" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G665" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H665" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I665" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="J665" s="54">
+        <v>44103</v>
+      </c>
+      <c r="K665" s="37">
+        <v>9075</v>
+      </c>
+      <c r="L665" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="M665" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="N665" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="O665" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P665" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q665" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="R665" s="73" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="666" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A666" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="B666" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C666" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D666" s="37">
+        <v>3.1</v>
+      </c>
+      <c r="E666" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F666" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G666" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H666" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I666" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="J666" s="54">
+        <v>44103</v>
+      </c>
+      <c r="K666" s="37">
+        <v>9075</v>
+      </c>
+      <c r="L666" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="M666" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="N666" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="O666" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P666" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q666" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="R666" s="73" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="667" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A667" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="B667" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C667" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D667" s="37">
+        <v>2.1</v>
+      </c>
+      <c r="E667" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F667" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G667" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H667" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I667" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="J667" s="54">
+        <v>44103</v>
+      </c>
+      <c r="K667" s="37">
+        <v>9075</v>
+      </c>
+      <c r="L667" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="M667" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="N667" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="O667" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P667" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q667" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="R667" s="73" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="668" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A668" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="B668" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="C668" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D668" s="37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E668" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F668" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G668" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H668" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I668" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="J668" s="54">
+        <v>44103</v>
+      </c>
+      <c r="K668" s="37">
+        <v>9075</v>
+      </c>
+      <c r="L668" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="M668" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="N668" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="O668" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P668" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q668" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="R668" s="73" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="669" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A669" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="B669" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C669" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="D669" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="E669" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F669" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G669" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H669" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I669" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="J669" s="54">
+        <v>44103</v>
+      </c>
+      <c r="K669" s="37">
+        <v>9075</v>
+      </c>
+      <c r="L669" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="M669" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="N669" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="O669" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P669" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q669" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="R669" s="73" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="670" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A670" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="B670" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="C670" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D670" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="E670" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F670" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G670" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H670" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I670" s="73" t="s">
+        <v>446</v>
+      </c>
+      <c r="J670" s="54">
+        <v>44103</v>
+      </c>
+      <c r="K670" s="37">
+        <v>9075</v>
+      </c>
+      <c r="L670" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="M670" s="37">
+        <v>1.3</v>
+      </c>
+      <c r="N670" s="37" t="s">
+        <v>408</v>
+      </c>
+      <c r="O670" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P670" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q670" s="37" t="s">
+        <v>449</v>
+      </c>
+      <c r="R670" s="73" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="671" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A671" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="B671" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="C671" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D671" s="74">
+        <v>50.927590000000002</v>
+      </c>
+      <c r="E671" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="F671" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="G671" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H671" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I671" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="J671" s="75">
+        <v>44118</v>
+      </c>
+      <c r="K671" s="74">
+        <v>1211</v>
+      </c>
+      <c r="L671" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="M671" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="N671" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="O671" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="P671" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q671" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R671" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="672" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A672" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="B672" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C672" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="D672" s="74">
+        <v>18.938800000000001</v>
+      </c>
+      <c r="E672" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="F672" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="G672" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H672" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I672" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="J672" s="75">
+        <v>44118</v>
+      </c>
+      <c r="K672" s="74">
+        <v>1211</v>
+      </c>
+      <c r="L672" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="M672" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="N672" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="O672" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="P672" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q672" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R672" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="673" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A673" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="B673" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="C673" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D673" s="74">
+        <v>4.0939500000000004</v>
+      </c>
+      <c r="E673" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="F673" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="G673" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H673" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I673" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="J673" s="75">
+        <v>44118</v>
+      </c>
+      <c r="K673" s="74">
+        <v>1211</v>
+      </c>
+      <c r="L673" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="M673" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="N673" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="O673" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="P673" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q673" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R673" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="674" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A674" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="B674" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="C674" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D674" s="74">
+        <v>5.4878400000000003</v>
+      </c>
+      <c r="E674" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="F674" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="G674" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H674" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I674" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="J674" s="75">
+        <v>44118</v>
+      </c>
+      <c r="K674" s="74">
+        <v>1211</v>
+      </c>
+      <c r="L674" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="M674" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="N674" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="O674" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="P674" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q674" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R674" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="675" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A675" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="B675" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="C675" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="D675" s="74">
+        <v>1.5766500000000001</v>
+      </c>
+      <c r="E675" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="F675" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="G675" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H675" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I675" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="J675" s="75">
+        <v>44118</v>
+      </c>
+      <c r="K675" s="74">
+        <v>1211</v>
+      </c>
+      <c r="L675" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="M675" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="N675" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="O675" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="P675" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q675" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R675" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="676" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A676" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="B676" s="74" t="s">
+        <v>243</v>
+      </c>
+      <c r="C676" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="D676" s="74">
+        <v>0.17867</v>
+      </c>
+      <c r="E676" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="F676" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="G676" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H676" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I676" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="J676" s="75">
+        <v>44118</v>
+      </c>
+      <c r="K676" s="74">
+        <v>1211</v>
+      </c>
+      <c r="L676" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="M676" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="N676" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="O676" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="P676" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q676" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R676" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="677" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A677" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="B677" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="C677" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="D677" s="74">
+        <v>4.2587099999999998</v>
+      </c>
+      <c r="E677" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="F677" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="G677" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H677" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I677" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="J677" s="75">
+        <v>44118</v>
+      </c>
+      <c r="K677" s="74">
+        <v>1211</v>
+      </c>
+      <c r="L677" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="M677" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="N677" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="O677" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="P677" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q677" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R677" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="678" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A678" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="B678" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C678" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="D678" s="74">
+        <v>5.1811199999999999</v>
+      </c>
+      <c r="E678" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="F678" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="G678" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H678" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I678" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="J678" s="75">
+        <v>44118</v>
+      </c>
+      <c r="K678" s="74">
+        <v>1211</v>
+      </c>
+      <c r="L678" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="M678" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="N678" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="O678" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="P678" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q678" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R678" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="679" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A679" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="B679" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="C679" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="D679" s="74">
+        <v>0.52268999999999999</v>
+      </c>
+      <c r="E679" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="F679" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="G679" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H679" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I679" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="J679" s="75">
+        <v>44118</v>
+      </c>
+      <c r="K679" s="74">
+        <v>1211</v>
+      </c>
+      <c r="L679" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="M679" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="N679" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="O679" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="P679" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q679" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R679" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="680" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A680" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="B680" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="C680" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="D680" s="74">
+        <v>4.7986899999999997</v>
+      </c>
+      <c r="E680" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="F680" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="G680" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H680" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I680" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="J680" s="75">
+        <v>44118</v>
+      </c>
+      <c r="K680" s="74">
+        <v>1211</v>
+      </c>
+      <c r="L680" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="M680" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="N680" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="O680" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="P680" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q680" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R680" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="681" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A681" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="B681" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="C681" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="D681" s="74">
+        <v>0.35733999999999999</v>
+      </c>
+      <c r="E681" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="F681" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="G681" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H681" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I681" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="J681" s="75">
+        <v>44118</v>
+      </c>
+      <c r="K681" s="74">
+        <v>1211</v>
+      </c>
+      <c r="L681" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="M681" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="N681" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="O681" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="P681" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q681" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R681" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="682" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A682" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="B682" s="74" t="s">
+        <v>427</v>
+      </c>
+      <c r="C682" s="74" t="s">
+        <v>465</v>
+      </c>
+      <c r="D682" s="74">
+        <v>5.7915000000000001E-2</v>
+      </c>
+      <c r="E682" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="F682" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="G682" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H682" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I682" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="J682" s="75">
+        <v>44118</v>
+      </c>
+      <c r="K682" s="74">
+        <v>1211</v>
+      </c>
+      <c r="L682" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="M682" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="N682" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="O682" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="P682" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q682" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R682" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="683" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A683" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="B683" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="C683" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="D683" s="74">
+        <v>3.0988099999999998</v>
+      </c>
+      <c r="E683" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="F683" s="74" t="s">
+        <v>199</v>
+      </c>
+      <c r="G683" s="74" t="s">
+        <v>143</v>
+      </c>
+      <c r="H683" s="74" t="s">
+        <v>198</v>
+      </c>
+      <c r="I683" s="74" t="s">
+        <v>356</v>
+      </c>
+      <c r="J683" s="75">
+        <v>44118</v>
+      </c>
+      <c r="K683" s="74">
+        <v>1211</v>
+      </c>
+      <c r="L683" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="M683" s="74">
+        <v>2.67</v>
+      </c>
+      <c r="N683" s="74" t="s">
+        <v>190</v>
+      </c>
+      <c r="O683" s="74" t="s">
+        <v>463</v>
+      </c>
+      <c r="P683" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q683" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R683" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="684" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A684" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="B684" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C684" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="D684" s="37">
+        <v>55</v>
+      </c>
+      <c r="E684" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F684" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G684" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H684" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I684" s="73" t="s">
+        <v>457</v>
+      </c>
+      <c r="J684" s="54">
+        <v>44124</v>
+      </c>
+      <c r="K684" s="37">
+        <v>1210</v>
+      </c>
+      <c r="L684" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="M684" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="N684" s="77" t="s">
+        <v>467</v>
+      </c>
+      <c r="O684" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P684" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q684" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="R684" s="73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="685" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A685" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="B685" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C685" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D685" s="37">
+        <v>22</v>
+      </c>
+      <c r="E685" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F685" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G685" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H685" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I685" s="73" t="s">
+        <v>457</v>
+      </c>
+      <c r="J685" s="54">
+        <v>44124</v>
+      </c>
+      <c r="K685" s="37">
+        <v>1210</v>
+      </c>
+      <c r="L685" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="M685" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="N685" s="77" t="s">
+        <v>467</v>
+      </c>
+      <c r="O685" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P685" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q685" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="R685" s="73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="686" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A686" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="B686" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C686" s="37" t="s">
+        <v>414</v>
+      </c>
+      <c r="D686" s="37">
+        <v>5</v>
+      </c>
+      <c r="E686" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F686" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G686" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H686" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I686" s="73" t="s">
+        <v>457</v>
+      </c>
+      <c r="J686" s="54">
+        <v>44124</v>
+      </c>
+      <c r="K686" s="37">
+        <v>1210</v>
+      </c>
+      <c r="L686" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="M686" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="N686" s="77" t="s">
+        <v>467</v>
+      </c>
+      <c r="O686" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P686" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q686" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="R686" s="73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="687" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A687" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="B687" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C687" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="D687" s="37">
+        <v>4</v>
+      </c>
+      <c r="E687" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F687" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G687" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H687" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I687" s="73" t="s">
+        <v>457</v>
+      </c>
+      <c r="J687" s="54">
+        <v>44124</v>
+      </c>
+      <c r="K687" s="37">
+        <v>1210</v>
+      </c>
+      <c r="L687" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="M687" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="N687" s="77" t="s">
+        <v>467</v>
+      </c>
+      <c r="O687" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P687" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q687" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="R687" s="73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="688" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A688" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="B688" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C688" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D688" s="37">
+        <v>2</v>
+      </c>
+      <c r="E688" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F688" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G688" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H688" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I688" s="73" t="s">
+        <v>457</v>
+      </c>
+      <c r="J688" s="54">
+        <v>44124</v>
+      </c>
+      <c r="K688" s="37">
+        <v>1210</v>
+      </c>
+      <c r="L688" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="M688" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="N688" s="77" t="s">
+        <v>467</v>
+      </c>
+      <c r="O688" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P688" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q688" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="R688" s="73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="689" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A689" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="B689" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C689" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D689" s="37">
+        <v>3</v>
+      </c>
+      <c r="E689" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F689" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G689" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H689" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I689" s="73" t="s">
+        <v>457</v>
+      </c>
+      <c r="J689" s="54">
+        <v>44124</v>
+      </c>
+      <c r="K689" s="37">
+        <v>1210</v>
+      </c>
+      <c r="L689" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="M689" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="N689" s="77" t="s">
+        <v>467</v>
+      </c>
+      <c r="O689" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P689" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q689" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="R689" s="73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="690" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A690" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="B690" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="C690" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D690" s="37">
+        <v>4</v>
+      </c>
+      <c r="E690" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F690" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G690" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H690" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I690" s="73" t="s">
+        <v>457</v>
+      </c>
+      <c r="J690" s="54">
+        <v>44124</v>
+      </c>
+      <c r="K690" s="37">
+        <v>1210</v>
+      </c>
+      <c r="L690" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="M690" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="N690" s="77" t="s">
+        <v>467</v>
+      </c>
+      <c r="O690" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P690" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q690" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="R690" s="73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="691" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A691" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="B691" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C691" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D691" s="37">
+        <v>2</v>
+      </c>
+      <c r="E691" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F691" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G691" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H691" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I691" s="73" t="s">
+        <v>457</v>
+      </c>
+      <c r="J691" s="54">
+        <v>44124</v>
+      </c>
+      <c r="K691" s="37">
+        <v>1210</v>
+      </c>
+      <c r="L691" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="M691" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="N691" s="77" t="s">
+        <v>467</v>
+      </c>
+      <c r="O691" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P691" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q691" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="R691" s="73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="692" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A692" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="B692" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C692" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="D692" s="37">
+        <v>3</v>
+      </c>
+      <c r="E692" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="F692" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="G692" s="37" t="s">
+        <v>368</v>
+      </c>
+      <c r="H692" s="37" t="s">
+        <v>441</v>
+      </c>
+      <c r="I692" s="73" t="s">
+        <v>457</v>
+      </c>
+      <c r="J692" s="54">
+        <v>44124</v>
+      </c>
+      <c r="K692" s="37">
+        <v>1210</v>
+      </c>
+      <c r="L692" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="M692" s="37">
+        <v>3.5</v>
+      </c>
+      <c r="N692" s="77" t="s">
+        <v>467</v>
+      </c>
+      <c r="O692" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="P692" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q692" s="37" t="s">
+        <v>468</v>
+      </c>
+      <c r="R692" s="73" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="693" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A693" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="B693" s="49" t="s">
+        <v>208</v>
+      </c>
+      <c r="C693" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D693" s="49">
+        <v>27.3</v>
+      </c>
+      <c r="E693" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F693" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G693" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H693" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="I693" s="79" t="s">
+        <v>457</v>
+      </c>
+      <c r="J693" s="78">
+        <v>44129</v>
+      </c>
+      <c r="K693" s="49">
+        <v>2800</v>
+      </c>
+      <c r="L693" s="49">
+        <v>3</v>
+      </c>
+      <c r="M693" s="49">
+        <v>3</v>
+      </c>
+      <c r="N693" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="O693" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="P693" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q693" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="R693" s="79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="694" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A694" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="B694" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C694" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="D694" s="49">
+        <v>18.5</v>
+      </c>
+      <c r="E694" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F694" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G694" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H694" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="I694" s="79" t="s">
+        <v>457</v>
+      </c>
+      <c r="J694" s="78">
+        <v>44129</v>
+      </c>
+      <c r="K694" s="49">
+        <v>2800</v>
+      </c>
+      <c r="L694" s="49">
+        <v>3</v>
+      </c>
+      <c r="M694" s="49">
+        <v>3</v>
+      </c>
+      <c r="N694" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="O694" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="P694" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q694" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="R694" s="79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="695" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A695" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="B695" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="C695" s="49" t="s">
+        <v>111</v>
+      </c>
+      <c r="D695" s="49">
+        <v>11.7</v>
+      </c>
+      <c r="E695" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F695" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G695" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H695" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="I695" s="79" t="s">
+        <v>457</v>
+      </c>
+      <c r="J695" s="78">
+        <v>44129</v>
+      </c>
+      <c r="K695" s="49">
+        <v>2800</v>
+      </c>
+      <c r="L695" s="49">
+        <v>3</v>
+      </c>
+      <c r="M695" s="49">
+        <v>3</v>
+      </c>
+      <c r="N695" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="O695" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="P695" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q695" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="R695" s="79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="696" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A696" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="B696" s="49" t="s">
+        <v>205</v>
+      </c>
+      <c r="C696" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D696" s="49">
+        <v>1.4</v>
+      </c>
+      <c r="E696" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F696" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G696" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H696" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="I696" s="79" t="s">
+        <v>457</v>
+      </c>
+      <c r="J696" s="78">
+        <v>44129</v>
+      </c>
+      <c r="K696" s="49">
+        <v>2800</v>
+      </c>
+      <c r="L696" s="49">
+        <v>3</v>
+      </c>
+      <c r="M696" s="49">
+        <v>3</v>
+      </c>
+      <c r="N696" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="O696" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="P696" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q696" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="R696" s="79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="697" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A697" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="B697" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="C697" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D697" s="49">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E697" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F697" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G697" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H697" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="I697" s="79" t="s">
+        <v>457</v>
+      </c>
+      <c r="J697" s="78">
+        <v>44129</v>
+      </c>
+      <c r="K697" s="49">
+        <v>2800</v>
+      </c>
+      <c r="L697" s="49">
+        <v>3</v>
+      </c>
+      <c r="M697" s="49">
+        <v>3</v>
+      </c>
+      <c r="N697" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="O697" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="P697" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q697" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="R697" s="79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="698" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A698" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="B698" s="49" t="s">
+        <v>243</v>
+      </c>
+      <c r="C698" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D698" s="49">
+        <v>3.01</v>
+      </c>
+      <c r="E698" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F698" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G698" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H698" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="I698" s="79" t="s">
+        <v>457</v>
+      </c>
+      <c r="J698" s="78">
+        <v>44129</v>
+      </c>
+      <c r="K698" s="49">
+        <v>2800</v>
+      </c>
+      <c r="L698" s="49">
+        <v>3</v>
+      </c>
+      <c r="M698" s="49">
+        <v>3</v>
+      </c>
+      <c r="N698" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="O698" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="P698" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q698" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="R698" s="79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="699" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A699" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="B699" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="C699" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D699" s="49">
+        <v>5.3</v>
+      </c>
+      <c r="E699" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F699" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G699" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H699" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="I699" s="79" t="s">
+        <v>457</v>
+      </c>
+      <c r="J699" s="78">
+        <v>44129</v>
+      </c>
+      <c r="K699" s="49">
+        <v>2800</v>
+      </c>
+      <c r="L699" s="49">
+        <v>3</v>
+      </c>
+      <c r="M699" s="49">
+        <v>3</v>
+      </c>
+      <c r="N699" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="O699" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="P699" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q699" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="R699" s="79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="700" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A700" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="B700" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C700" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D700" s="49">
+        <v>4.03</v>
+      </c>
+      <c r="E700" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F700" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G700" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H700" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="I700" s="79" t="s">
+        <v>457</v>
+      </c>
+      <c r="J700" s="78">
+        <v>44129</v>
+      </c>
+      <c r="K700" s="49">
+        <v>2800</v>
+      </c>
+      <c r="L700" s="49">
+        <v>3</v>
+      </c>
+      <c r="M700" s="49">
+        <v>3</v>
+      </c>
+      <c r="N700" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="O700" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="P700" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q700" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="R700" s="79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="701" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A701" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="B701" s="49" t="s">
+        <v>248</v>
+      </c>
+      <c r="C701" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="D701" s="49">
+        <v>0</v>
+      </c>
+      <c r="E701" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F701" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G701" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H701" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="I701" s="79" t="s">
+        <v>457</v>
+      </c>
+      <c r="J701" s="78">
+        <v>44129</v>
+      </c>
+      <c r="K701" s="49">
+        <v>2800</v>
+      </c>
+      <c r="L701" s="49">
+        <v>3</v>
+      </c>
+      <c r="M701" s="49">
+        <v>3</v>
+      </c>
+      <c r="N701" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="O701" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="P701" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q701" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="R701" s="79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="702" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A702" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="B702" s="49" t="s">
+        <v>260</v>
+      </c>
+      <c r="C702" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="D702" s="49">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E702" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F702" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G702" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H702" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="I702" s="79" t="s">
+        <v>457</v>
+      </c>
+      <c r="J702" s="78">
+        <v>44129</v>
+      </c>
+      <c r="K702" s="49">
+        <v>2800</v>
+      </c>
+      <c r="L702" s="49">
+        <v>3</v>
+      </c>
+      <c r="M702" s="49">
+        <v>3</v>
+      </c>
+      <c r="N702" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="O702" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="P702" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q702" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="R702" s="79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="703" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A703" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="B703" s="49" t="s">
+        <v>255</v>
+      </c>
+      <c r="C703" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="D703" s="49">
+        <v>1.9</v>
+      </c>
+      <c r="E703" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F703" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G703" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H703" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="I703" s="79" t="s">
+        <v>457</v>
+      </c>
+      <c r="J703" s="78">
+        <v>44129</v>
+      </c>
+      <c r="K703" s="49">
+        <v>2800</v>
+      </c>
+      <c r="L703" s="49">
+        <v>3</v>
+      </c>
+      <c r="M703" s="49">
+        <v>3</v>
+      </c>
+      <c r="N703" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="O703" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="P703" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q703" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="R703" s="79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="704" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A704" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="B704" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="C704" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D704" s="49">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E704" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F704" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G704" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H704" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="I704" s="79" t="s">
+        <v>457</v>
+      </c>
+      <c r="J704" s="78">
+        <v>44129</v>
+      </c>
+      <c r="K704" s="49">
+        <v>2800</v>
+      </c>
+      <c r="L704" s="49">
+        <v>3</v>
+      </c>
+      <c r="M704" s="49">
+        <v>3</v>
+      </c>
+      <c r="N704" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="O704" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="P704" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q704" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="R704" s="79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="705" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A705" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="B705" s="49" t="s">
+        <v>219</v>
+      </c>
+      <c r="C705" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D705" s="49">
+        <v>2.1</v>
+      </c>
+      <c r="E705" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F705" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G705" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H705" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="I705" s="79" t="s">
+        <v>457</v>
+      </c>
+      <c r="J705" s="78">
+        <v>44129</v>
+      </c>
+      <c r="K705" s="49">
+        <v>2800</v>
+      </c>
+      <c r="L705" s="49">
+        <v>3</v>
+      </c>
+      <c r="M705" s="49">
+        <v>3</v>
+      </c>
+      <c r="N705" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="O705" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="P705" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q705" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="R705" s="79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="706" spans="1:18" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A706" s="49" t="s">
+        <v>469</v>
+      </c>
+      <c r="B706" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="C706" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="D706" s="49">
+        <v>13.26</v>
+      </c>
+      <c r="E706" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="F706" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="G706" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="H706" s="49" t="s">
+        <v>184</v>
+      </c>
+      <c r="I706" s="79" t="s">
+        <v>457</v>
+      </c>
+      <c r="J706" s="78">
+        <v>44129</v>
+      </c>
+      <c r="K706" s="49">
+        <v>2800</v>
+      </c>
+      <c r="L706" s="49">
+        <v>3</v>
+      </c>
+      <c r="M706" s="49">
+        <v>3</v>
+      </c>
+      <c r="N706" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="O706" s="49" t="s">
+        <v>470</v>
+      </c>
+      <c r="P706" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q706" s="49" t="s">
+        <v>458</v>
+      </c>
+      <c r="R706" s="79" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="707" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A707" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="B707" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="C707" s="74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D707" s="74">
+        <v>56</v>
+      </c>
+      <c r="E707" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="F707" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="G707" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H707" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="I707" s="76" t="s">
+        <v>457</v>
+      </c>
+      <c r="J707" s="75">
+        <v>44124</v>
+      </c>
+      <c r="K707" s="74">
+        <v>1518</v>
+      </c>
+      <c r="L707" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="M707" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="N707" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="O707" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="P707" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q707" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R707" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="708" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A708" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="B708" s="74" t="s">
+        <v>140</v>
+      </c>
+      <c r="C708" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="D708" s="74">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="E708" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="F708" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="G708" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H708" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="I708" s="76" t="s">
+        <v>457</v>
+      </c>
+      <c r="J708" s="75">
+        <v>44124</v>
+      </c>
+      <c r="K708" s="74">
+        <v>1518</v>
+      </c>
+      <c r="L708" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="M708" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="N708" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="O708" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="P708" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q708" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R708" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="709" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A709" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="B709" s="74" t="s">
+        <v>206</v>
+      </c>
+      <c r="C709" s="74" t="s">
+        <v>111</v>
+      </c>
+      <c r="D709" s="74">
+        <v>4.3</v>
+      </c>
+      <c r="E709" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="F709" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="G709" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H709" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="I709" s="76" t="s">
+        <v>457</v>
+      </c>
+      <c r="J709" s="75">
+        <v>44124</v>
+      </c>
+      <c r="K709" s="74">
+        <v>1518</v>
+      </c>
+      <c r="L709" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="M709" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="N709" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="O709" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="P709" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q709" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R709" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="710" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A710" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="B710" s="74" t="s">
+        <v>205</v>
+      </c>
+      <c r="C710" s="74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D710" s="74">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E710" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="F710" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="G710" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H710" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="I710" s="76" t="s">
+        <v>457</v>
+      </c>
+      <c r="J710" s="75">
+        <v>44124</v>
+      </c>
+      <c r="K710" s="74">
+        <v>1518</v>
+      </c>
+      <c r="L710" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="M710" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="N710" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="O710" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="P710" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q710" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R710" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="711" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A711" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="B711" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="C711" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="D711" s="74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E711" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="F711" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="G711" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H711" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="I711" s="76" t="s">
+        <v>457</v>
+      </c>
+      <c r="J711" s="75">
+        <v>44124</v>
+      </c>
+      <c r="K711" s="74">
+        <v>1518</v>
+      </c>
+      <c r="L711" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="M711" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="N711" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="O711" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="P711" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q711" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R711" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="712" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A712" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="B712" s="74" t="s">
+        <v>243</v>
+      </c>
+      <c r="C712" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="D712" s="74">
+        <v>1.6</v>
+      </c>
+      <c r="E712" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="F712" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="G712" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H712" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="I712" s="76" t="s">
+        <v>457</v>
+      </c>
+      <c r="J712" s="75">
+        <v>44124</v>
+      </c>
+      <c r="K712" s="74">
+        <v>1518</v>
+      </c>
+      <c r="L712" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="M712" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="N712" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="O712" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="P712" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q712" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R712" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="713" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A713" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="B713" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="C713" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="D713" s="74">
+        <v>4.5</v>
+      </c>
+      <c r="E713" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="F713" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="G713" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H713" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="I713" s="76" t="s">
+        <v>457</v>
+      </c>
+      <c r="J713" s="75">
+        <v>44124</v>
+      </c>
+      <c r="K713" s="74">
+        <v>1518</v>
+      </c>
+      <c r="L713" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="M713" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="N713" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="O713" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="P713" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q713" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R713" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="714" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A714" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="B714" s="74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C714" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="D714" s="74">
+        <v>3</v>
+      </c>
+      <c r="E714" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="F714" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="G714" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H714" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="I714" s="76" t="s">
+        <v>457</v>
+      </c>
+      <c r="J714" s="75">
+        <v>44124</v>
+      </c>
+      <c r="K714" s="74">
+        <v>1518</v>
+      </c>
+      <c r="L714" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="M714" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="N714" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="O714" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="P714" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q714" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R714" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="715" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A715" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="B715" s="74" t="s">
+        <v>260</v>
+      </c>
+      <c r="C715" s="74" t="s">
+        <v>141</v>
+      </c>
+      <c r="D715" s="74">
+        <v>3.9</v>
+      </c>
+      <c r="E715" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="F715" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="G715" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H715" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="I715" s="76" t="s">
+        <v>457</v>
+      </c>
+      <c r="J715" s="75">
+        <v>44124</v>
+      </c>
+      <c r="K715" s="74">
+        <v>1518</v>
+      </c>
+      <c r="L715" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="M715" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="N715" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="O715" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="P715" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q715" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R715" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="716" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A716" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="B716" s="74" t="s">
+        <v>255</v>
+      </c>
+      <c r="C716" s="74" t="s">
+        <v>202</v>
+      </c>
+      <c r="D716" s="74">
+        <v>0</v>
+      </c>
+      <c r="E716" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="F716" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="G716" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H716" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="I716" s="76" t="s">
+        <v>457</v>
+      </c>
+      <c r="J716" s="75">
+        <v>44124</v>
+      </c>
+      <c r="K716" s="74">
+        <v>1518</v>
+      </c>
+      <c r="L716" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="M716" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="N716" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="O716" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="P716" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q716" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R716" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="717" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A717" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="B717" s="74" t="s">
+        <v>219</v>
+      </c>
+      <c r="C717" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="D717" s="74">
+        <v>0</v>
+      </c>
+      <c r="E717" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="F717" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="G717" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H717" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="I717" s="76" t="s">
+        <v>457</v>
+      </c>
+      <c r="J717" s="75">
+        <v>44124</v>
+      </c>
+      <c r="K717" s="74">
+        <v>1518</v>
+      </c>
+      <c r="L717" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="M717" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="N717" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="O717" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="P717" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q717" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R717" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="718" spans="1:18" s="74" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A718" s="74" t="s">
+        <v>477</v>
+      </c>
+      <c r="B718" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="C718" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="D718" s="74">
+        <v>0</v>
+      </c>
+      <c r="E718" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="F718" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="G718" s="74" t="s">
+        <v>13</v>
+      </c>
+      <c r="H718" s="74" t="s">
+        <v>474</v>
+      </c>
+      <c r="I718" s="76" t="s">
+        <v>457</v>
+      </c>
+      <c r="J718" s="75">
+        <v>44124</v>
+      </c>
+      <c r="K718" s="74">
+        <v>1518</v>
+      </c>
+      <c r="L718" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="M718" s="74">
+        <v>2.5</v>
+      </c>
+      <c r="N718" s="81" t="s">
+        <v>475</v>
+      </c>
+      <c r="O718" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="P718" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="Q718" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="R718" s="76" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="719" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A719" s="68" t="s">
+        <v>478</v>
+      </c>
+      <c r="B719" s="68" t="s">
+        <v>208</v>
+      </c>
+      <c r="C719" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D719" s="72">
+        <v>23</v>
+      </c>
+      <c r="E719" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F719" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G719" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H719" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I719" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J719" s="70">
+        <v>44131</v>
+      </c>
+      <c r="K719" s="12">
+        <v>2000</v>
+      </c>
+      <c r="L719" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M719" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N719" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="O719" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P719" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q719" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R719" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="720" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A720" s="68" t="s">
+        <v>478</v>
+      </c>
+      <c r="B720" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="C720" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D720" s="72">
+        <v>18</v>
+      </c>
+      <c r="E720" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F720" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G720" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H720" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I720" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J720" s="70">
+        <v>44131</v>
+      </c>
+      <c r="K720" s="12">
+        <v>2000</v>
+      </c>
+      <c r="L720" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M720" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N720" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="O720" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P720" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q720" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R720" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="721" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A721" s="68" t="s">
+        <v>478</v>
+      </c>
+      <c r="B721" s="68" t="s">
+        <v>206</v>
+      </c>
+      <c r="C721" s="68" t="s">
+        <v>111</v>
+      </c>
+      <c r="D721" s="72">
+        <v>4</v>
+      </c>
+      <c r="E721" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F721" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G721" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H721" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I721" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J721" s="70">
+        <v>44131</v>
+      </c>
+      <c r="K721" s="12">
+        <v>2000</v>
+      </c>
+      <c r="L721" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M721" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N721" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="O721" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P721" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q721" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R721" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="722" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A722" s="68" t="s">
+        <v>478</v>
+      </c>
+      <c r="B722" s="68" t="s">
+        <v>205</v>
+      </c>
+      <c r="C722" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D722" s="72">
+        <v>1</v>
+      </c>
+      <c r="E722" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F722" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G722" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H722" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I722" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J722" s="70">
+        <v>44131</v>
+      </c>
+      <c r="K722" s="12">
+        <v>2000</v>
+      </c>
+      <c r="L722" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M722" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N722" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="O722" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P722" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q722" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R722" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="723" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A723" s="68" t="s">
+        <v>478</v>
+      </c>
+      <c r="B723" s="68" t="s">
+        <v>209</v>
+      </c>
+      <c r="C723" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="D723" s="72">
+        <v>2</v>
+      </c>
+      <c r="E723" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F723" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G723" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H723" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I723" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J723" s="70">
+        <v>44131</v>
+      </c>
+      <c r="K723" s="12">
+        <v>2000</v>
+      </c>
+      <c r="L723" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M723" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N723" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="O723" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P723" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q723" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R723" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="724" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A724" s="68" t="s">
+        <v>478</v>
+      </c>
+      <c r="B724" s="68" t="s">
+        <v>243</v>
+      </c>
+      <c r="C724" s="68" t="s">
+        <v>113</v>
+      </c>
+      <c r="D724" s="72">
+        <v>1</v>
+      </c>
+      <c r="E724" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F724" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G724" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H724" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I724" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J724" s="70">
+        <v>44131</v>
+      </c>
+      <c r="K724" s="12">
+        <v>2000</v>
+      </c>
+      <c r="L724" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M724" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N724" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="O724" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P724" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q724" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R724" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="725" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A725" s="68" t="s">
+        <v>478</v>
+      </c>
+      <c r="B725" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="C725" s="68" t="s">
+        <v>96</v>
+      </c>
+      <c r="D725" s="72">
+        <v>4</v>
+      </c>
+      <c r="E725" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F725" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G725" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H725" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I725" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J725" s="70">
+        <v>44131</v>
+      </c>
+      <c r="K725" s="12">
+        <v>2000</v>
+      </c>
+      <c r="L725" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M725" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N725" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="O725" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P725" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q725" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R725" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="726" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A726" s="68" t="s">
+        <v>478</v>
+      </c>
+      <c r="B726" s="68" t="s">
+        <v>210</v>
+      </c>
+      <c r="C726" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="D726" s="72">
+        <v>1</v>
+      </c>
+      <c r="E726" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F726" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G726" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H726" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I726" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J726" s="70">
+        <v>44131</v>
+      </c>
+      <c r="K726" s="12">
+        <v>2000</v>
+      </c>
+      <c r="L726" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M726" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N726" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="O726" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P726" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q726" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R726" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="727" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A727" s="68" t="s">
+        <v>478</v>
+      </c>
+      <c r="B727" s="68" t="s">
+        <v>260</v>
+      </c>
+      <c r="C727" s="68" t="s">
+        <v>141</v>
+      </c>
+      <c r="D727" s="72">
+        <v>3</v>
+      </c>
+      <c r="E727" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F727" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G727" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H727" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I727" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J727" s="70">
+        <v>44131</v>
+      </c>
+      <c r="K727" s="12">
+        <v>2000</v>
+      </c>
+      <c r="L727" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M727" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N727" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="O727" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P727" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q727" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R727" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="728" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A728" s="68" t="s">
+        <v>478</v>
+      </c>
+      <c r="B728" s="68" t="s">
+        <v>255</v>
+      </c>
+      <c r="C728" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="D728" s="72">
+        <v>1</v>
+      </c>
+      <c r="E728" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F728" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G728" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H728" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I728" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J728" s="70">
+        <v>44131</v>
+      </c>
+      <c r="K728" s="12">
+        <v>2000</v>
+      </c>
+      <c r="L728" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M728" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N728" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="O728" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P728" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q728" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R728" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="729" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A729" s="68" t="s">
+        <v>478</v>
+      </c>
+      <c r="B729" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="C729" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D729" s="72">
+        <v>1</v>
+      </c>
+      <c r="E729" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F729" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G729" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H729" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I729" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J729" s="70">
+        <v>44131</v>
+      </c>
+      <c r="K729" s="12">
+        <v>2000</v>
+      </c>
+      <c r="L729" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M729" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N729" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="O729" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P729" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q729" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R729" s="69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="730" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A730" s="68" t="s">
+        <v>478</v>
+      </c>
+      <c r="B730" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="C730" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="D730" s="72">
+        <v>41</v>
+      </c>
+      <c r="E730" s="68" t="s">
+        <v>178</v>
+      </c>
+      <c r="F730" s="68" t="s">
+        <v>444</v>
+      </c>
+      <c r="G730" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H730" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="I730" s="69" t="s">
+        <v>457</v>
+      </c>
+      <c r="J730" s="70">
+        <v>44131</v>
+      </c>
+      <c r="K730" s="12">
+        <v>2000</v>
+      </c>
+      <c r="L730" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M730" s="12">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="N730" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="O730" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="P730" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="Q730" s="69" t="s">
+        <v>458</v>
+      </c>
+      <c r="R730" s="69" t="s">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -38407,9 +43160,33 @@
     <hyperlink ref="N329:N340" r:id="rId50" display="https://www.iri.org/sites/default/files/georgia_poll_2.pdf" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="N341:N352" r:id="rId51" display="https://formulanews.ge/News/22931" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
     <hyperlink ref="N587" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="N645" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="N648" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="N649" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="N650" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="N651" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="N652" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="N653" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="N654" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="N655" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="N656" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="N657" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="N658" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="N659" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="N660" r:id="rId66" xr:uid="{CBB5117F-F79F-43DC-BEA0-A64AD1E8416E}"/>
+    <hyperlink ref="N661" r:id="rId67" xr:uid="{7BFAFD23-DA8E-496E-87FF-12004CC4904B}"/>
+    <hyperlink ref="N662" r:id="rId68" xr:uid="{ED2D0028-A304-42F8-980D-E17DB88B4101}"/>
+    <hyperlink ref="N663" r:id="rId69" xr:uid="{465E1DAB-C1E1-41B4-851A-1436D754BFE9}"/>
+    <hyperlink ref="N664" r:id="rId70" xr:uid="{93321549-C8EA-4952-AC48-FFF68C9313E8}"/>
+    <hyperlink ref="N665" r:id="rId71" xr:uid="{43014DDA-04BC-46A1-831A-E0E3B9500FF1}"/>
+    <hyperlink ref="N670" r:id="rId72" xr:uid="{B9276901-DE87-453A-8325-9B4C41CB111E}"/>
+    <hyperlink ref="N666" r:id="rId73" xr:uid="{2A17697B-EBDF-4FD4-BA4B-5F061952363A}"/>
+    <hyperlink ref="N667" r:id="rId74" xr:uid="{A74D5CA5-CDF3-4CF8-A023-F1933A11C50A}"/>
+    <hyperlink ref="N669" r:id="rId75" xr:uid="{75532AF5-76F7-42DD-B215-AF9B2035537E}"/>
+    <hyperlink ref="N668" r:id="rId76" xr:uid="{FA330D78-5162-4FC3-A2B8-1C56CEC7E6EA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId53"/>
+  <pageSetup orientation="portrait" r:id="rId77"/>
 </worksheet>
 </file>
 
@@ -38417,7 +43194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H131"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
